--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.8.1.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.8.1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895AFCF3-566E-46A5-A1A9-5C05AC1F1082}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912DA17D-D10D-48AC-94ED-1C7984B66CA5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,9 +303,6 @@
     </xf>
     <xf numFmtId="37" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -650,6 +647,7 @@
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -680,14 +678,15 @@
       <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -701,21 +700,21 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
